--- a/uploads/data.xlsx
+++ b/uploads/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\13- Informatique\GESTION DES HEURES\Application pointages\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CB10BC-01F2-4F53-92F6-8BCE42129C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1225B6A6-8614-45AC-B4EA-0B11D7F8EAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23355" yWindow="6480" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Libellé</t>
   </si>
@@ -50,57 +50,6 @@
   </si>
   <si>
     <t>Durée prévue - Durée en heures</t>
-  </si>
-  <si>
-    <t>Benjamin Corbeau</t>
-  </si>
-  <si>
-    <t>2024-08-10  05:45</t>
-  </si>
-  <si>
-    <t>2024-08-10  12:00</t>
-  </si>
-  <si>
-    <t>IT00012</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>6,3</t>
-  </si>
-  <si>
-    <t>P-23-T-06</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>fessesss</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>2024-08-10  05:46</t>
-  </si>
-  <si>
-    <t>2024-08-10  12:01</t>
-  </si>
-  <si>
-    <t>IT00013</t>
-  </si>
-  <si>
-    <t>6,4</t>
-  </si>
-  <si>
-    <t>P-23-T-07</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3,6</t>
   </si>
 </sst>
 </file>
@@ -483,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -523,75 +472,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>